--- a/biology/Histoire de la zoologie et de la botanique/Gustav_Adolf_Fischer/Gustav_Adolf_Fischer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gustav_Adolf_Fischer/Gustav_Adolf_Fischer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Adolf Fischer, né le 3 mars 1848 à Barmen et mort le 11 novembre 1886 à Berlin, est un explorateur de l'Afrique orientale et un naturaliste allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fischer est fils d'un banquier. Il poursuit ses études supérieures à Bonn, à Wurtzbourg et à Berlin, en médecine et en sciences naturelles. Il sort diplômé en 1872 et devient médecin militaire, d'abord dans un régiment de Frise orientale stationné à Emden, puis il se forme à Berlin pour intégrer l'Afrikakorps, ancêtre de la Troupe de protection de l'Afrique orientale.
 Après avoir fait la connaissance de Clemens Denhardt, qui a l'intention d'organiser une expédition en Afrique orientale équatoriale, Fischer embarque de Hambourg avec lui et son frère Gustav à la fin de l'année 1876 à destination du sultanat de Zanzibar.
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mehr Licht im dunkeln Afrika, Hamburg, 1885
 Bericht über die im Auftrage der Geographischen Gesellschaft in Hamburg unternommene Reise in das Massai-Land, I., Allgemeiner Bericht, Mitt. Geogr. Ges. Hamburg N° 5 (1882-1883): pp. 36–99, 1885.
